--- a/Mifos Automation Excels/Loan Product/2117-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-LATE-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2117-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-LATE-Loanproduct.xlsx
@@ -200,10 +200,10 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>2117-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-LATE</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,8 +740,8 @@
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
+      <c r="B17" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
